--- a/Daisy-xls/ResearchPages/English/research-coping.xlsx
+++ b/Daisy-xls/ResearchPages/English/research-coping.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -193,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,12 +216,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -267,6 +282,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,7 +592,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -610,7 +628,9 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="16">
+        <v>821969</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -629,7 +649,9 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="16">
+        <v>821972</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
@@ -647,7 +669,9 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="16">
+        <v>826390</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -665,7 +689,9 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="16">
+        <v>317507</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
@@ -681,7 +707,9 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="16">
+        <v>819879</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
@@ -699,7 +727,9 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="16">
+        <v>821962</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
@@ -717,7 +747,9 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="16">
+        <v>821967</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -735,7 +767,9 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="16">
+        <v>826389</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -753,7 +787,9 @@
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="16">
+        <v>821970</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
